--- a/uploads/Bus_Details_Upload_Template.xlsx
+++ b/uploads/Bus_Details_Upload_Template.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\beta_merge\uploads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Bus Id(Unique)</t>
   </si>
@@ -32,19 +27,30 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>IMEI</t>
+  </si>
+  <si>
+    <t>Available Seats</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF797979"/>
+      <name val="Rubiklight"/>
     </font>
   </fonts>
   <fills count="3">
@@ -73,12 +79,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,7 +147,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -171,27 +179,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,24 +213,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -416,22 +388,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="6" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -444,11 +417,19 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1"/>
+      <c r="C2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>